--- a/tabella volumi e calcoli frequenza.xlsx
+++ b/tabella volumi e calcoli frequenza.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvia.furegato\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvia.furegato\Desktop\uu\DBFair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B29D90-50C3-4646-BEFC-1B75D44E3EAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85284D12-C263-4D9C-B682-0FBFC0D0B6C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6220A66E-3728-495C-9DFE-BD2AA59ECA02}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>tabella dei volumi</t>
   </si>
@@ -133,6 +134,21 @@
   </si>
   <si>
     <t>1 500 000</t>
+  </si>
+  <si>
+    <t>accesso</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>CON RIDONDANZA</t>
+  </si>
+  <si>
+    <t>op.6</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -156,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +191,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -323,17 +369,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -362,6 +399,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,7 +749,7 @@
   <dimension ref="B1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,317 +760,317 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5">
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5">
         <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5">
         <v>410</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5">
         <v>390</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="C13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="18">
         <v>250</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="C14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="21">
         <v>250</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="10">
         <v>800</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="13">
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="10">
         <v>800</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="C17" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="18">
         <v>750</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="10">
         <v>750</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="10">
         <v>750</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="10">
         <v>250</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="13">
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="13">
+      <c r="C27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="10">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="13">
+      <c r="C28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="C29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="10">
+      <c r="C30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1013,4 +1081,69 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E28107-1945-4ECD-B56E-29A35B3E3E07}">
+  <dimension ref="A2:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tabella volumi e calcoli frequenza.xlsx
+++ b/tabella volumi e calcoli frequenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvia.furegato\Desktop\uu\DBFair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85284D12-C263-4D9C-B682-0FBFC0D0B6C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F3828B-57F0-47EE-A18F-6773CD3C79A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6220A66E-3728-495C-9DFE-BD2AA59ECA02}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{6220A66E-3728-495C-9DFE-BD2AA59ECA02}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>tabella dei volumi</t>
   </si>
@@ -142,13 +142,25 @@
     <t>tipo</t>
   </si>
   <si>
-    <t>CON RIDONDANZA</t>
-  </si>
-  <si>
-    <t>op.6</t>
-  </si>
-  <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>op.5</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>assegnazione</t>
+  </si>
+  <si>
+    <t>4S</t>
+  </si>
+  <si>
+    <t>SENZA RIDONDANZA</t>
+  </si>
+  <si>
+    <t>4s + 1l</t>
   </si>
 </sst>
 </file>
@@ -401,18 +413,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -431,6 +431,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A96337-134D-4D88-9C54-F07139C3A98A}">
   <dimension ref="B1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -760,11 +772,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -877,24 +889,24 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="18">
+      <c r="C13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="14">
         <v>250</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="21">
+      <c r="C14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="17">
         <v>250</v>
       </c>
     </row>
@@ -921,13 +933,13 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="18">
+      <c r="C17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="14">
         <v>750</v>
       </c>
     </row>
@@ -1085,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E28107-1945-4ECD-B56E-29A35B3E3E07}">
-  <dimension ref="A2:E5"/>
+  <dimension ref="A2:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,34 +1108,52 @@
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="G2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1134,15 +1164,77 @@
       <c r="E4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
